--- a/data/metadaten/metadaten_totenzettel.xlsx
+++ b/data/metadaten/metadaten_totenzettel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annab\OneDrive\Desktop\Kralik\mathilde_kralik\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annab\OneDrive\Desktop\Kralik\mathilde_kralik\data\metadaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B8116-FCC6-441E-9E74-6CEC90988401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DCBCF4-F236-467A-A943-13148B1EFAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{176CE328-83F6-44FA-A0CF-AC15AA63CDFE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -84,15 +84,27 @@
   </si>
   <si>
     <t>Totenzettel_Richard_Kralik_von_Meyrswalden.html</t>
+  </si>
+  <si>
+    <t>1944-03-08</t>
+  </si>
+  <si>
+    <t>1917-03-25</t>
+  </si>
+  <si>
+    <t>1903-08-07</t>
+  </si>
+  <si>
+    <t>1905-10-03</t>
+  </si>
+  <si>
+    <t>1934-02-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,10 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -471,13 +484,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -488,8 +504,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>16139</v>
+      <c r="A2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -499,8 +515,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>6294</v>
+      <c r="A3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -510,8 +526,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1315</v>
+      <c r="A4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -521,8 +537,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2103</v>
+      <c r="A5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -532,7 +548,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -543,8 +559,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>12454</v>
+      <c r="A7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
